--- a/data/trans_dic/P39A5_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P39A5_2023-Estudios-trans_dic.xlsx
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.8008444386413773</v>
+        <v>0.8008444386413772</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.8454813290911148</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.7606048182550885</v>
+        <v>0.7620953998644477</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.8235375071992193</v>
+        <v>0.8238358002670317</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8055270243399654</v>
+        <v>0.8070413578195436</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8353380810407368</v>
+        <v>0.8370362739165317</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8667922166785869</v>
+        <v>0.8674316203211484</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8459090825473058</v>
+        <v>0.8456475153499627</v>
       </c>
     </row>
     <row r="7">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.8699321992404285</v>
+        <v>0.8699321992404286</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.8590242018785713</v>
+        <v>0.8590242018785714</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.8645146116172049</v>
+        <v>0.8645146116172048</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8513903620492047</v>
+        <v>0.8525269997926285</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8449643446820874</v>
+        <v>0.8444165023165743</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8540949147012359</v>
+        <v>0.8530711612230603</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8856218167292407</v>
+        <v>0.8850143354893493</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8725646358444699</v>
+        <v>0.8728893853035835</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8757309434250905</v>
+        <v>0.8751689017549613</v>
       </c>
     </row>
     <row r="10">
@@ -677,10 +677,10 @@
         <v>0.9088440586092117</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.8776793711701769</v>
+        <v>0.8776793711701767</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.8929328590284024</v>
+        <v>0.8929328590284025</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8853037189688443</v>
+        <v>0.8833305427906117</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8534617210423606</v>
+        <v>0.8539888245474513</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8752186614553731</v>
+        <v>0.8768503403615103</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9288613145844506</v>
+        <v>0.9286351035523517</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8971753482042722</v>
+        <v>0.8982679565308437</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9064509994892859</v>
+        <v>0.9072956210717481</v>
       </c>
     </row>
     <row r="13">
@@ -729,10 +729,10 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.8681262393327228</v>
+        <v>0.8681262393327225</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.8602900801259968</v>
+        <v>0.8602900801259965</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.864091798941011</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8536606703496752</v>
+        <v>0.8541887309836735</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.850039529642028</v>
+        <v>0.8487248198827474</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8557569850329436</v>
+        <v>0.855729587066047</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8806344872389912</v>
+        <v>0.8801891393424529</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8698401058206497</v>
+        <v>0.8703026593124248</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8727177738452983</v>
+        <v>0.8715392503573525</v>
       </c>
     </row>
     <row r="16">
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>356526</v>
+        <v>357225</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>546141</v>
+        <v>546339</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>911780</v>
+        <v>913494</v>
       </c>
     </row>
     <row r="7">
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>391556</v>
+        <v>392352</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>574826</v>
+        <v>575250</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>957489</v>
+        <v>957193</v>
       </c>
     </row>
     <row r="8">
@@ -982,13 +982,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1753205</v>
+        <v>1755546</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1716895</v>
+        <v>1715782</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>3494222</v>
+        <v>3490034</v>
       </c>
     </row>
     <row r="11">
@@ -999,13 +999,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>1823695</v>
+        <v>1822445</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>1772976</v>
+        <v>1773636</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>3582738</v>
+        <v>3580439</v>
       </c>
     </row>
     <row r="12">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>604848</v>
+        <v>603500</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>608236</v>
+        <v>608611</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1221698</v>
+        <v>1223976</v>
       </c>
     </row>
     <row r="15">
@@ -1071,13 +1071,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>634607</v>
+        <v>634453</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>639389</v>
+        <v>640168</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1265295</v>
+        <v>1266474</v>
       </c>
     </row>
     <row r="16">
@@ -1126,13 +1126,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>2741255</v>
+        <v>2742950</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>2896721</v>
+        <v>2892240</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>5664190</v>
+        <v>5664009</v>
       </c>
     </row>
     <row r="19">
@@ -1143,13 +1143,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>2827872</v>
+        <v>2826442</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>2964196</v>
+        <v>2965772</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>5776453</v>
+        <v>5768652</v>
       </c>
     </row>
     <row r="20">
